--- a/teaching/traditional_assets/database/data/luxembourg/luxembourg_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/luxembourg/luxembourg_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.175</v>
+        <v>0.03351999999999999</v>
       </c>
       <c r="E2">
-        <v>0.09119999999999999</v>
+        <v>-0.0959</v>
       </c>
       <c r="G2">
-        <v>0.1302031672460409</v>
+        <v>-3.923281428028865</v>
       </c>
       <c r="H2">
-        <v>0.1298570876786404</v>
+        <v>-3.923281428028865</v>
       </c>
       <c r="I2">
-        <v>0.5208960988798763</v>
+        <v>1.035067730092417</v>
       </c>
       <c r="J2">
-        <v>0.4843146137682316</v>
+        <v>1.021252121754655</v>
       </c>
       <c r="K2">
-        <v>647.8</v>
+        <v>61.62</v>
       </c>
       <c r="L2">
-        <v>0.5004248744689069</v>
+        <v>-0.7800987466767947</v>
       </c>
       <c r="M2">
-        <v>320.263</v>
+        <v>229.117</v>
       </c>
       <c r="N2">
-        <v>0.03544026027200196</v>
+        <v>0.02462035246077799</v>
       </c>
       <c r="O2">
-        <v>0.4943856128434703</v>
+        <v>3.718224602401818</v>
       </c>
       <c r="P2">
-        <v>165.653</v>
+        <v>184.5</v>
       </c>
       <c r="Q2">
-        <v>0.01833113857934866</v>
+        <v>0.01982591876208897</v>
       </c>
       <c r="R2">
-        <v>0.2557162704538438</v>
+        <v>2.994157740993184</v>
       </c>
       <c r="S2">
-        <v>154.61</v>
+        <v>44.617</v>
       </c>
       <c r="T2">
-        <v>0.4827594820506895</v>
+        <v>0.1947345679281764</v>
       </c>
       <c r="U2">
-        <v>292.46</v>
+        <v>122.46</v>
       </c>
       <c r="V2">
-        <v>0.03236358405170029</v>
+        <v>0.01315925209542231</v>
       </c>
       <c r="W2">
-        <v>0.1084684857170121</v>
+        <v>0.00969353964717924</v>
       </c>
       <c r="X2">
-        <v>0.04776221733662046</v>
+        <v>0.03525885212668903</v>
       </c>
       <c r="Y2">
-        <v>0.06070626838039164</v>
+        <v>-0.02556531247950979</v>
       </c>
       <c r="Z2">
-        <v>0.1214881524415881</v>
+        <v>-0.007505458774611996</v>
       </c>
       <c r="AA2">
-        <v>0.1105033440977418</v>
+        <v>0.009443189854483775</v>
       </c>
       <c r="AB2">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC2">
-        <v>0.06290594792295184</v>
+        <v>-0.02578601808003933</v>
       </c>
       <c r="AD2">
-        <v>126.4</v>
+        <v>25.17</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>126.4</v>
+        <v>25.17</v>
       </c>
       <c r="AG2">
-        <v>-166.06</v>
+        <v>-97.29000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.01379445820737524</v>
+        <v>0.002697410935606146</v>
       </c>
       <c r="AI2">
-        <v>0.01168552621847497</v>
+        <v>0.002305711513992289</v>
       </c>
       <c r="AJ2">
-        <v>-0.01872018253474383</v>
+        <v>-0.01056499770326137</v>
       </c>
       <c r="AK2">
-        <v>-0.0157786616547926</v>
+        <v>-0.009013415898409382</v>
       </c>
       <c r="AL2">
-        <v>10.159</v>
+        <v>2.607</v>
       </c>
       <c r="AM2">
-        <v>8.235000000000001</v>
+        <v>1.295</v>
       </c>
       <c r="AN2">
-        <v>0.6329494241362044</v>
+        <v>0.318204804045512</v>
       </c>
       <c r="AO2">
-        <v>66.37464317354069</v>
+        <v>-31.36171845032604</v>
       </c>
       <c r="AP2">
-        <v>-0.8315473209814721</v>
+        <v>-1.229962073324905</v>
       </c>
       <c r="AQ2">
-        <v>81.88221007893138</v>
+        <v>-63.13513513513514</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +716,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Edify S.A. (BDL:EDIFY)</t>
+          <t>BBGI Global Infrastructure S.A. (LSE:BBGI)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.485</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="E3">
-        <v>0.15</v>
+        <v>0.0358</v>
       </c>
       <c r="G3">
-        <v>0.1060717081571943</v>
+        <v>0.9697732997481108</v>
       </c>
       <c r="H3">
-        <v>0.1053702833881321</v>
+        <v>0.9697732997481108</v>
       </c>
       <c r="I3">
-        <v>0.05229372162204477</v>
+        <v>0.8035264483627204</v>
       </c>
       <c r="J3">
-        <v>0.03344175301221672</v>
+        <v>0.7510987431288324</v>
       </c>
       <c r="K3">
-        <v>18.4</v>
+        <v>54.8</v>
       </c>
       <c r="L3">
-        <v>0.02880851730076718</v>
+        <v>0.690176322418136</v>
       </c>
       <c r="M3">
-        <v>0.953</v>
+        <v>53.3</v>
       </c>
       <c r="N3">
-        <v>0.003361552028218695</v>
+        <v>0.03375340383762903</v>
       </c>
       <c r="O3">
-        <v>0.05179347826086957</v>
+        <v>0.9726277372262774</v>
       </c>
       <c r="P3">
-        <v>0.953</v>
+        <v>53.3</v>
       </c>
       <c r="Q3">
-        <v>0.003361552028218695</v>
+        <v>0.03375340383762903</v>
       </c>
       <c r="R3">
-        <v>0.05179347826086957</v>
+        <v>0.9726277372262774</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,52 +773,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>18.9</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.01196884301184219</v>
+      </c>
+      <c r="W3">
+        <v>0.05036764705882352</v>
       </c>
       <c r="X3">
-        <v>0.04776221733662046</v>
+        <v>0.03534687160382731</v>
+      </c>
+      <c r="Y3">
+        <v>0.01502077545499621</v>
+      </c>
+      <c r="Z3">
+        <v>0.07446309668948702</v>
+      </c>
+      <c r="AA3">
+        <v>0.05592913833295442</v>
       </c>
       <c r="AB3">
-        <v>0.04776221733662046</v>
+        <v>0.03523845704962056</v>
+      </c>
+      <c r="AC3">
+        <v>0.02069068128333387</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>-10.68</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.005178539928936825</v>
+      </c>
+      <c r="AI3">
+        <v>0.00767994618431871</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>-0.00680940054322184</v>
+      </c>
+      <c r="AK3">
+        <v>-0.01015769150291986</v>
       </c>
       <c r="AL3">
-        <v>5.52</v>
+        <v>2.34</v>
       </c>
       <c r="AM3">
-        <v>4.239999999999999</v>
+        <v>2.258</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.1288401253918496</v>
       </c>
       <c r="AO3">
-        <v>6.050724637681159</v>
+        <v>27.26495726495726</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>-0.167398119122257</v>
       </c>
       <c r="AQ3">
-        <v>7.877358490566039</v>
+        <v>28.25509300265722</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NB Aurora S.A. SICAF-RAIF (BIT:NBA)</t>
+          <t>Brederode SA (ENXTBR:BREB)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -837,74 +858,62 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0.886178861788618</v>
-      </c>
-      <c r="J4">
-        <v>0.886178861788618</v>
+      <c r="E4">
+        <v>-0.0959</v>
       </c>
       <c r="K4">
-        <v>32.5</v>
-      </c>
-      <c r="L4">
-        <v>0.8807588075880759</v>
+        <v>185.1</v>
       </c>
       <c r="M4">
-        <v>27.21</v>
+        <v>33.6</v>
       </c>
       <c r="N4">
-        <v>0.1339074803149606</v>
+        <v>0.0120378331900258</v>
       </c>
       <c r="O4">
-        <v>0.8372307692307692</v>
+        <v>0.1815235008103728</v>
       </c>
       <c r="P4">
-        <v>19.8</v>
+        <v>33.6</v>
       </c>
       <c r="Q4">
-        <v>0.09744094488188977</v>
+        <v>0.0120378331900258</v>
       </c>
       <c r="R4">
-        <v>0.6092307692307692</v>
+        <v>0.1815235008103728</v>
       </c>
       <c r="S4">
-        <v>7.41</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.2723263506063947</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>91.5</v>
+        <v>0.09</v>
       </c>
       <c r="V4">
-        <v>0.4502952755905512</v>
+        <v>3.224419604471195e-05</v>
       </c>
       <c r="W4">
-        <v>0.1612903225806452</v>
+        <v>0.07228492209161558</v>
       </c>
       <c r="X4">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y4">
-        <v>0.1135281052440247</v>
+        <v>0.03703942592131181</v>
       </c>
       <c r="Z4">
-        <v>0.232807570977918</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.2063091482649843</v>
+        <v>0.01308767570692983</v>
       </c>
       <c r="AB4">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC4">
-        <v>0.1585469309283638</v>
+        <v>-0.02215782046337394</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -916,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>-91.5</v>
+        <v>-0.09</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -925,22 +934,16 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.819158460161146</v>
+        <v>-3.224523576641551e-05</v>
       </c>
       <c r="AK4">
-        <v>-0.792894280762565</v>
+        <v>-3.353441562554727e-05</v>
       </c>
       <c r="AL4">
-        <v>0.074</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.074</v>
-      </c>
-      <c r="AO4">
-        <v>441.8918918918919</v>
-      </c>
-      <c r="AQ4">
-        <v>441.8918918918919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -951,7 +954,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brederode SA (ENXTBR:BREB)</t>
+          <t>Luxempart S.A. (BDL:LXMPR)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -960,109 +963,121 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.061</v>
+        <v>0.00184</v>
       </c>
       <c r="E5">
-        <v>0.09119999999999999</v>
+        <v>-0.207</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>8.086805555555555</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8.086805555555555</v>
       </c>
       <c r="I5">
-        <v>1.098350451291628</v>
+        <v>0.53125</v>
       </c>
       <c r="J5">
-        <v>1.098350451291628</v>
+        <v>0.5304580745341615</v>
       </c>
       <c r="K5">
-        <v>352.9</v>
+        <v>16.1</v>
       </c>
       <c r="L5">
-        <v>1.098350451291628</v>
+        <v>0.5590277777777778</v>
       </c>
       <c r="M5">
-        <v>31.3</v>
+        <v>33.517</v>
       </c>
       <c r="N5">
-        <v>0.01330499468650372</v>
+        <v>0.02784266489450075</v>
       </c>
       <c r="O5">
-        <v>0.08869368092944177</v>
+        <v>2.081801242236025</v>
       </c>
       <c r="P5">
-        <v>31.3</v>
+        <v>33.5</v>
       </c>
       <c r="Q5">
-        <v>0.01330499468650372</v>
+        <v>0.02782854294733345</v>
       </c>
       <c r="R5">
-        <v>0.08869368092944177</v>
+        <v>2.080745341614906</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.01700000000000301</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000507205298803682</v>
       </c>
       <c r="U5">
-        <v>1.04</v>
+        <v>46.6</v>
       </c>
       <c r="V5">
-        <v>0.0004420828905419766</v>
+        <v>0.03871074929390264</v>
       </c>
       <c r="W5">
-        <v>0.1537154804425472</v>
+        <v>0.00969353964717924</v>
       </c>
       <c r="X5">
-        <v>0.04776221733662046</v>
+        <v>0.03548169027697537</v>
       </c>
       <c r="Y5">
-        <v>0.1059532631059268</v>
+        <v>-0.02578815062979613</v>
       </c>
       <c r="Z5">
-        <v>0.140014642054071</v>
+        <v>0.01780195326987267</v>
       </c>
       <c r="AA5">
-        <v>0.1537851452875246</v>
+        <v>0.009443189854483775</v>
       </c>
       <c r="AB5">
-        <v>0.04776221733662046</v>
+        <v>0.0352292079345231</v>
       </c>
       <c r="AC5">
-        <v>0.1060229279509041</v>
+        <v>-0.02578601808003933</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="AG5">
-        <v>-1.04</v>
+        <v>-32</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.01198292843072883</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.008901896225839888</v>
       </c>
       <c r="AJ5">
-        <v>-0.0004422784142617778</v>
+        <v>-0.0273084144051886</v>
       </c>
       <c r="AK5">
-        <v>-0.0004063039622449857</v>
+        <v>-0.02008158142453718</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.255</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>-0.975</v>
+      </c>
+      <c r="AN5">
+        <v>0.9542483660130718</v>
+      </c>
+      <c r="AO5">
+        <v>60</v>
+      </c>
+      <c r="AP5">
+        <v>-2.091503267973856</v>
+      </c>
+      <c r="AQ5">
+        <v>-15.69230769230769</v>
       </c>
     </row>
     <row r="6">
@@ -1073,7 +1088,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BBGI Sicav S.A. (LSE:BBGI)</t>
+          <t>Reinet Investments S.C.A. (BDL:REINI)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1081,122 +1096,104 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D6">
-        <v>0.175</v>
-      </c>
-      <c r="E6">
-        <v>0.115</v>
-      </c>
       <c r="G6">
-        <v>0.8485477178423235</v>
+        <v>-0</v>
       </c>
       <c r="H6">
-        <v>0.8485477178423235</v>
+        <v>-0</v>
       </c>
       <c r="I6">
-        <v>0.7188796680497924</v>
+        <v>1.012472885032538</v>
       </c>
       <c r="J6">
-        <v>0.6755625598467921</v>
+        <v>1.012472885032538</v>
       </c>
       <c r="K6">
-        <v>58.6</v>
+        <v>-186.7</v>
       </c>
       <c r="L6">
-        <v>0.6078838174273858</v>
+        <v>1.012472885032538</v>
       </c>
       <c r="M6">
-        <v>42.2</v>
+        <v>85.7</v>
       </c>
       <c r="N6">
-        <v>0.03036626610059725</v>
+        <v>0.02501021420650208</v>
       </c>
       <c r="O6">
-        <v>0.7201365187713311</v>
+        <v>-0.4590251740760579</v>
       </c>
       <c r="P6">
-        <v>42.2</v>
+        <v>41.1</v>
       </c>
       <c r="Q6">
-        <v>0.03036626610059725</v>
+        <v>0.01199439677814744</v>
       </c>
       <c r="R6">
-        <v>0.7201365187713311</v>
+        <v>-0.2201392608462775</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>44.6</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.5204200700116686</v>
       </c>
       <c r="U6">
-        <v>106</v>
+        <v>1.17</v>
       </c>
       <c r="V6">
-        <v>0.07627545513420163</v>
+        <v>0.0003414463316406934</v>
       </c>
       <c r="W6">
-        <v>0.06322149099147698</v>
+        <v>-0.03608496492007963</v>
       </c>
       <c r="X6">
-        <v>0.04904416845009884</v>
+        <v>0.03525885212668903</v>
       </c>
       <c r="Y6">
-        <v>0.01417732254137814</v>
+        <v>-0.07134381704676866</v>
       </c>
       <c r="Z6">
-        <v>0.09950454170107349</v>
+        <v>-0.03570059513898838</v>
       </c>
       <c r="AA6">
-        <v>0.06722154290795908</v>
+        <v>-0.03614588455775017</v>
       </c>
       <c r="AB6">
-        <v>0.04743257501295953</v>
+        <v>0.0352479597472441</v>
       </c>
       <c r="AC6">
-        <v>0.01978896789499954</v>
+        <v>-0.07139384430499426</v>
       </c>
       <c r="AD6">
-        <v>84.3</v>
+        <v>2.35</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>84.3</v>
+        <v>2.35</v>
       </c>
       <c r="AG6">
-        <v>-21.7</v>
+        <v>1.18</v>
       </c>
       <c r="AH6">
-        <v>0.05719131614654002</v>
+        <v>0.0006853409935986235</v>
       </c>
       <c r="AI6">
-        <v>0.07190992066877079</v>
+        <v>0.000439543996483648</v>
       </c>
       <c r="AJ6">
-        <v>-0.01586257309941521</v>
+        <v>0.000344246130148376</v>
       </c>
       <c r="AK6">
-        <v>-0.02035074556878928</v>
+        <v>0.0002207555076628352</v>
       </c>
       <c r="AL6">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>4.244000000000001</v>
-      </c>
-      <c r="AN6">
-        <v>1.214697406340058</v>
-      </c>
-      <c r="AO6">
-        <v>15.75</v>
-      </c>
-      <c r="AP6">
-        <v>-0.3126801152737752</v>
-      </c>
-      <c r="AQ6">
-        <v>16.32893496701225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1207,7 +1204,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Luxempart S.A. (BDL:LXMPR)</t>
+          <t>NB Aurora S.A. SICAF-RAIF (BIT:NBA)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1215,47 +1212,41 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D7">
-        <v>0.216</v>
-      </c>
-      <c r="E7">
-        <v>-0.187</v>
-      </c>
       <c r="G7">
-        <v>0.2543507362784471</v>
+        <v>-0</v>
       </c>
       <c r="H7">
-        <v>0.2543507362784471</v>
+        <v>-0</v>
       </c>
       <c r="I7">
-        <v>0.8406961178045514</v>
+        <v>2.745519713261649</v>
       </c>
       <c r="J7">
-        <v>0.8401833336556498</v>
+        <v>2.745519713261649</v>
       </c>
       <c r="K7">
-        <v>62.2</v>
+        <v>-7.68</v>
       </c>
       <c r="L7">
-        <v>0.8326639892904953</v>
+        <v>2.752688172043011</v>
       </c>
       <c r="M7">
-        <v>32.1</v>
+        <v>23</v>
       </c>
       <c r="N7">
-        <v>0.02688217067247299</v>
+        <v>0.07533573534228627</v>
       </c>
       <c r="O7">
-        <v>0.5160771704180064</v>
+        <v>-2.994791666666667</v>
       </c>
       <c r="P7">
-        <v>32.1</v>
+        <v>23</v>
       </c>
       <c r="Q7">
-        <v>0.02688217067247299</v>
+        <v>0.07533573534228627</v>
       </c>
       <c r="R7">
-        <v>0.5160771704180064</v>
+        <v>-2.994791666666667</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1264,195 +1255,67 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>85.2</v>
+        <v>55.7</v>
       </c>
       <c r="V7">
-        <v>0.07135080814002179</v>
+        <v>0.1824434981984933</v>
       </c>
       <c r="W7">
-        <v>0.03720095693779905</v>
+        <v>-0.03711938134364427</v>
       </c>
       <c r="X7">
-        <v>0.04850730323559885</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y7">
-        <v>-0.0113063462977998</v>
+        <v>-0.07236487751394804</v>
       </c>
       <c r="Z7">
-        <v>0.04577205882352942</v>
+        <v>-0.02417677642980936</v>
       </c>
       <c r="AA7">
-        <v>0.03845692097063545</v>
+        <v>-0.06637781629116117</v>
       </c>
       <c r="AB7">
-        <v>0.04756592369489451</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC7">
-        <v>-0.00910900272425906</v>
+        <v>-0.1016233124614649</v>
       </c>
       <c r="AD7">
-        <v>42.1</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>42.1</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>-43.1</v>
+        <v>-55.7</v>
       </c>
       <c r="AH7">
-        <v>0.03405597799708786</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>0.02472108044627129</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>-0.03744569939183319</v>
+        <v>-0.2231570512820513</v>
       </c>
       <c r="AK7">
-        <v>-0.02664111756706639</v>
+        <v>-0.4645537948290243</v>
       </c>
       <c r="AL7">
-        <v>0.165</v>
+        <v>0.012</v>
       </c>
       <c r="AM7">
-        <v>-0.323</v>
-      </c>
-      <c r="AN7">
-        <v>0.6682539682539683</v>
+        <v>0.012</v>
       </c>
       <c r="AO7">
-        <v>380.6060606060606</v>
-      </c>
-      <c r="AP7">
-        <v>-0.6841269841269841</v>
+        <v>-638.3333333333334</v>
       </c>
       <c r="AQ7">
-        <v>-194.4272445820434</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Luxembourg</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Reinet Investments S.C.A. (BDL:REINI)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>-0.267</v>
-      </c>
-      <c r="E8">
-        <v>-0.271</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0.9739130434782609</v>
-      </c>
-      <c r="J8">
-        <v>0.9739130434782609</v>
-      </c>
-      <c r="K8">
-        <v>123.2</v>
-      </c>
-      <c r="L8">
-        <v>0.9739130434782609</v>
-      </c>
-      <c r="M8">
-        <v>186.5</v>
-      </c>
-      <c r="N8">
-        <v>0.05160915405263304</v>
-      </c>
-      <c r="O8">
-        <v>1.513798701298701</v>
-      </c>
-      <c r="P8">
-        <v>39.3</v>
-      </c>
-      <c r="Q8">
-        <v>0.01087528018374519</v>
-      </c>
-      <c r="R8">
-        <v>0.3189935064935064</v>
-      </c>
-      <c r="S8">
-        <v>147.2</v>
-      </c>
-      <c r="T8">
-        <v>0.7892761394101876</v>
-      </c>
-      <c r="U8">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="V8">
-        <v>0.00241303926723303</v>
-      </c>
-      <c r="W8">
-        <v>0.02190416925948973</v>
-      </c>
-      <c r="X8">
-        <v>0.04776221733662046</v>
-      </c>
-      <c r="Y8">
-        <v>-0.02585804807713073</v>
-      </c>
-      <c r="Z8">
-        <v>0.02258404299002017</v>
-      </c>
-      <c r="AA8">
-        <v>0.02199489404245443</v>
-      </c>
-      <c r="AB8">
-        <v>0.04776221733662046</v>
-      </c>
-      <c r="AC8">
-        <v>-0.02576732329416603</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>-8.720000000000001</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>-0.002418876110269683</v>
-      </c>
-      <c r="AK8">
-        <v>-0.001688227709392509</v>
-      </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
-        <v>0</v>
+        <v>-638.3333333333334</v>
       </c>
     </row>
   </sheetData>
